--- a/output/fit_clients/fit_round_18.xlsx
+++ b/output/fit_clients/fit_round_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>5567159558.331456</v>
+        <v>8358495692.261386</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2234910346943432</v>
+        <v>0.1494825236503726</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.455973402498655</v>
+        <v>0.2069841647368472</v>
       </c>
       <c r="I2" t="n">
-        <v>0.546143694975984</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.044012441149793</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7408780692660686</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.77354894417158</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>7831985735.00777</v>
+        <v>3523760817.469783</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1856185007464851</v>
+        <v>0.4467537587100999</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3163098307494342</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.001348436133597</v>
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9774183480506569</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5599357969558959</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.044123131638676</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9229223186945164</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.41432324225165</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>8179339548.302515</v>
+        <v>6035752490.449897</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.181578735205855</v>
+        <v>0.2169895140783643</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3014122776781081</v>
+        <v>0.3870692388598093</v>
       </c>
       <c r="I4" t="n">
-        <v>4.087864077995945</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.919881907674219</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7529808521765293</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.139735135856368</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>8230357457.246062</v>
+        <v>4076516744.741308</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1763158000777238</v>
+        <v>0.2640904864155827</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2820040089076258</v>
+        <v>0.5127181833740718</v>
       </c>
       <c r="I5" t="n">
-        <v>3.994138799311734</v>
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9758331007889611</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01864342791886344</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.516709935349935</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8337817921000464</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.15892590665099</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>10009149219.78102</v>
+        <v>9316996370.123322</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1222136970025872</v>
+        <v>0.144506491847241</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0824902144247666</v>
+        <v>0.1937098497300032</v>
       </c>
       <c r="I6" t="n">
-        <v>3.366900395809711</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.995990542982276</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7601310563835606</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.206630584688935</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>5615954879.427718</v>
+        <v>8598676941.680227</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.209422286191845</v>
+        <v>0.1864317837351792</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4040916966533157</v>
+        <v>0.3055518863753743</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4287395350669216</v>
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9798611738148187</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4059861947272421</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.586599524359842</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9104985948821629</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.62337237328341</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>5951880344.003206</v>
+        <v>9872066853.233213</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2570152072262789</v>
+        <v>0.1220534076514459</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.579601403788282</v>
+        <v>0.1338128626764631</v>
       </c>
       <c r="I8" t="n">
-        <v>4.210427903967604</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.900215531522031</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7316267811517204</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.732320091512378</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>5887995092.547268</v>
+        <v>12892428629.05554</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1975221007694248</v>
+        <v>0.1034149226930932</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3602070597588992</v>
+        <v>0.08409189416661686</v>
       </c>
       <c r="I9" t="n">
-        <v>3.201078748906877</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.205430752836175</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7575954663241165</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.946478573646154</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>5213699921.497951</v>
+        <v>8813918567.888359</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2778300807123982</v>
+        <v>0.1551320867634909</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6563609779055558</v>
+        <v>0.2220552260526897</v>
       </c>
       <c r="I10" t="n">
-        <v>3.986929162489872</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.879169694265999</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7641474188873316</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.403778683480632</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>7115398429.31632</v>
+        <v>4774658846.544958</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1513013362068948</v>
+        <v>0.3176408741951192</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1897574913019722</v>
+        <v>0.6555719158757132</v>
       </c>
       <c r="I11" t="n">
-        <v>0.434742090573182</v>
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2398152448018852</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.724002579484665</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6487120703596897</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.250238827709129</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>6856435260.646694</v>
+        <v>8642506036.261553</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1849043579943936</v>
+        <v>0.1472979636529899</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3136762671322433</v>
+        <v>0.2011565216059575</v>
       </c>
       <c r="I12" t="n">
-        <v>3.489464221781371</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.951643530149958</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7456686125624059</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.961728721098161</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>7565510567.590643</v>
+        <v>5338326509.461539</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1637657444175073</v>
+        <v>0.268399905374938</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2357228278921029</v>
+        <v>0.5242142081235411</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5293954704538997</v>
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1670886706859403</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.676072556840421</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7448387549905442</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.220702542970464</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>8784201113.320488</v>
+        <v>4326816573.348352</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1577442606475357</v>
+        <v>0.3723117961419309</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2135172386990997</v>
+        <v>0.8014148421970129</v>
       </c>
       <c r="I14" t="n">
-        <v>3.813897878765176</v>
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9798640179925829</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3490706857661113</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.103562628843352</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8687785195718899</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.27200776259444</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>8262382638.890262</v>
+        <v>6045333590.691305</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1778515779556499</v>
+        <v>0.1624842095583469</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2876675386872785</v>
+        <v>0.2416681219924823</v>
       </c>
       <c r="I15" t="n">
-        <v>4.04460625706477</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.614827996068666</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6365335669786963</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.115843343505261</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7978703855.528244</v>
+        <v>6353301334.63837</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1959937175656042</v>
+        <v>0.2098545999590762</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3545707995197248</v>
+        <v>0.3680357798078386</v>
       </c>
       <c r="I16" t="n">
-        <v>4.304153182651815</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.027240312038222</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5919589866143213</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.811939420248205</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>6978429714.431489</v>
+        <v>6365907192.756721</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1662823611449862</v>
+        <v>0.2254864352457512</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2450034237288496</v>
+        <v>0.4097360570447798</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4348403870549908</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.200916445095908</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7768717161967208</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.336517878838508</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5935868958.083839</v>
+        <v>5674820316.572038</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2056372451311718</v>
+        <v>0.1934024953697523</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3901334979629698</v>
+        <v>0.3241473105446821</v>
       </c>
       <c r="I18" t="n">
-        <v>3.359690758987849</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.951677716444314</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7081148831747673</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.210619947051033</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>11217353475.19929</v>
+        <v>8046657364.40543</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1172231741566509</v>
+        <v>0.1627626156661604</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06408652782383431</v>
+        <v>0.2424108122567646</v>
       </c>
       <c r="I19" t="n">
-        <v>3.619237684574893</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.29211736161418</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7529808521765293</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.767499681916407</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>9216399402.323885</v>
+        <v>5646605255.20781</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1662626675677298</v>
+        <v>0.2620964779918078</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.244930799189284</v>
+        <v>0.5073988652927783</v>
       </c>
       <c r="I20" t="n">
-        <v>4.217637540789466</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.536772092251766</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7849355233132576</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.161938374013385</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>6890416743.635845</v>
+        <v>5629043427.115102</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2052808491309962</v>
+        <v>0.1754312331724364</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3888192067563082</v>
+        <v>0.2762062593384521</v>
       </c>
       <c r="I21" t="n">
-        <v>3.893203883805662</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.070210854440579</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.41693655878723</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-11.40894203018518</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>9091949524.827885</v>
+        <v>8624970909.976679</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.157878760334096</v>
+        <v>0.1834338430254807</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2140132368451449</v>
+        <v>0.2975544275714869</v>
       </c>
       <c r="I22" t="n">
-        <v>3.95088097838056</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.809379030245755</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.3057554416410457</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-8.92448786306667</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>9717672969.654808</v>
+        <v>6882214017.424276</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1288444696492473</v>
+        <v>0.2047643122448866</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1069426947516595</v>
+        <v>0.3544566699333606</v>
       </c>
       <c r="I23" t="n">
-        <v>3.446206400850197</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.262785076862601</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7720355668182042</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.177926259501483</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>8769533953.222759</v>
+        <v>4740643622.93271</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1568133218179318</v>
+        <v>0.3143946325748004</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2100841903004496</v>
+        <v>0.6469120769596274</v>
       </c>
       <c r="I24" t="n">
-        <v>3.785059331477727</v>
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9718844704651537</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3120913986268111</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5.821075284781292</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9593874469651554</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13.36667365452182</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>10111024009.40122</v>
+        <v>5390429865.206038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1308267044732629</v>
+        <v>0.2395651742610402</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1142526359335425</v>
+        <v>0.4472932158375509</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5042450288556636</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.1237113522984</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7493455438928062</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.863199525557723</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>7258120124.67785</v>
+        <v>3599245030.589144</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1508524247590346</v>
+        <v>0.4301067242833993</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1881020283669175</v>
+        <v>0.9555915260085894</v>
       </c>
       <c r="I26" t="n">
-        <v>3.013628191538456</v>
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9780370752843057</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3210251504777258</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.075517093554966</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8501210484257361</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.92690387495976</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>5357902472.864045</v>
+        <v>10746697551.87275</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2732858646486891</v>
+        <v>0.1430748304377522</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6396031489435015</v>
+        <v>0.1898906770871079</v>
       </c>
       <c r="I27" t="n">
-        <v>4.030186983421046</v>
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3302913468181577</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.274967096996519</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5451088478098222</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.627209859199924</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>4121341896.623069</v>
+        <v>6868949757.164029</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2796495968811414</v>
+        <v>0.2204132325208746</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6630708570842767</v>
+        <v>0.3962025239549772</v>
       </c>
       <c r="I28" t="n">
-        <v>3.172240201619428</v>
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9790245277982565</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4068069250988489</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.35148267527721</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8647206832472165</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.94293098966712</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>10704160909.90307</v>
+        <v>11978256599.23124</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1274926826573983</v>
+        <v>0.1351434581977391</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1019576731582879</v>
+        <v>0.168732545926408</v>
       </c>
       <c r="I29" t="n">
-        <v>3.756220784190277</v>
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.98150352469411</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3174500722347416</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.781142563513218</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8226260191540671</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13.67137781956813</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>8362399740.85573</v>
+        <v>7575162793.160958</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1841817382246295</v>
+        <v>0.1649402216316768</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3110114425868141</v>
+        <v>0.2482199044592814</v>
       </c>
       <c r="I30" t="n">
-        <v>0.481066307639176</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.879796575826634</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7408780692660686</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.937764809494738</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>8132480238.907625</v>
+        <v>7501544328.27452</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1810145412905099</v>
+        <v>0.1309425375649201</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2993316844575762</v>
+        <v>0.1575259568198642</v>
       </c>
       <c r="I31" t="n">
-        <v>4.051815893886633</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.16144056142559</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5167696763342119</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.173952965258647</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8564975198.995839</v>
+        <v>8015683129.020356</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1370099378848849</v>
+        <v>0.1297329015209078</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1370547136718631</v>
+        <v>0.1542990703112718</v>
       </c>
       <c r="I32" t="n">
-        <v>3.229917296194327</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.901451545561656</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.4887154659500675</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-12.67576086456301</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>5002126314.31261</v>
+        <v>6488026149.62783</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2194115744057978</v>
+        <v>0.2095342063437865</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4409294660276551</v>
+        <v>0.3671810815374495</v>
       </c>
       <c r="I33" t="n">
-        <v>3.020837828360319</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.988972659182862</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7626470631856191</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.263968604529522</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>7683424982.529707</v>
+        <v>5100348032.477936</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1830710175733224</v>
+        <v>0.2177540342203705</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.306915407882858</v>
+        <v>0.38910871159543</v>
       </c>
       <c r="I34" t="n">
-        <v>3.871574973340075</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.503414230062078</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.3894648462247834</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.285882694433591</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9052046968.503958</v>
+        <v>11714407679.41262</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1371613364711915</v>
+        <v>0.1366221266835959</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1376130303493388</v>
+        <v>0.1726771170321642</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5276866189410113</v>
+        <v>5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3492988346913199</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.833486169374099</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6711879561941876</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.590272954509652</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>9953308290.684809</v>
+        <v>8914533947.078714</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.155268987442734</v>
+        <v>0.1360449774715846</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2043891064934835</v>
+        <v>0.171137484499798</v>
       </c>
       <c r="I36" t="n">
-        <v>4.253685724898778</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.935622696773799</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7332792226150018</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.729961755526236</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5030078250.523127</v>
+        <v>11066909168.10358</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2390221285076353</v>
+        <v>0.08946756542049653</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5132478388520024</v>
+        <v>0.04688521597920466</v>
       </c>
       <c r="I37" t="n">
-        <v>3.309223301234812</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.442574938208712</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.1615746840601119</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.2110812570064726</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>3911032263.324347</v>
+        <v>4685732659.021388</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2739252549886605</v>
+        <v>0.2688857179195398</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6419610460608506</v>
+        <v>0.5255101863259439</v>
       </c>
       <c r="I38" t="n">
-        <v>2.948741460141695</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.976142975965034</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7430160998379687</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.884179020794341</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>7898542600.680773</v>
+        <v>5777025393.138219</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1475751425205372</v>
+        <v>0.2598067981114879</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1760163056717054</v>
+        <v>0.5012907990265877</v>
       </c>
       <c r="I39" t="n">
-        <v>0.475347358217157</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.670485307383119</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7886642732919323</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.102800158455528</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>5313956923.400476</v>
+        <v>5198608887.412169</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.262236879238432</v>
+        <v>0.2675515931517554</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5988575054456016</v>
+        <v>0.5219512073791337</v>
       </c>
       <c r="I40" t="n">
-        <v>3.835526789230763</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.191837603703696</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7686077317811618</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.18031703191954</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>3750663134.969298</v>
+        <v>10575914701.69934</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.341508065082599</v>
+        <v>0.1109584138203615</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8911880098432025</v>
+        <v>0.1042152939832488</v>
       </c>
       <c r="I41" t="n">
-        <v>3.525512405890682</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.041467844518124</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7249283223333552</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.457098602148982</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>5342370797.269256</v>
+        <v>6638558325.893601</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2279917280587463</v>
+        <v>0.1704551537321443</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4725707316207563</v>
+        <v>0.2629318172523006</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5055501774446248</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.992849920995249</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.715766023751623</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.322470554037213</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>4111961154.413776</v>
+        <v>7757680079.760063</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3102273786391989</v>
+        <v>0.1276321541775442</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7758333731170861</v>
+        <v>0.1486950100703285</v>
       </c>
       <c r="I43" t="n">
-        <v>3.511093132246958</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.625682367121797</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5865949742771801</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.106217118421805</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>5748253207.13921</v>
+        <v>11119229027.17222</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2620185986465235</v>
+        <v>0.138752489604251</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5980525461800968</v>
+        <v>0.1783601812902904</v>
       </c>
       <c r="I44" t="n">
-        <v>4.145541172570844</v>
+        <v>9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9812333044840769</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4232055429687416</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.020165451866911</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8248552501551245</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.47693955123558</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>10827633635.59012</v>
+        <v>13593834270.35478</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1446664407679352</v>
+        <v>0.07245127610153627</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1652898072419747</v>
+        <v>0.001491698894904537</v>
       </c>
       <c r="I45" t="n">
-        <v>4.311362819473677</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.129536066901349</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5180091860908395</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6.230647654915439</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>7713710581.627893</v>
+        <v>7107196130.840916</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1392261076735076</v>
+        <v>0.2189214468485346</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1452273431744967</v>
+        <v>0.3922229607767685</v>
       </c>
       <c r="I46" t="n">
-        <v>2.955951096963558</v>
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3574942177330823</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.252934081080335</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.7004454520541291</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.755974960002247</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>4166928263.990313</v>
+        <v>12054684243.24396</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2985917134096582</v>
+        <v>0.09104547144112105</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7329242145201664</v>
+        <v>0.05109451816971395</v>
       </c>
       <c r="I47" t="n">
-        <v>3.42457749038461</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.039184148266166</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7081148831747673</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.12311351522918</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>4489685469.787032</v>
+        <v>3784651271.715703</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3413030067054311</v>
+        <v>0.4034993610673447</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8904318104980044</v>
+        <v>0.884612373381561</v>
       </c>
       <c r="I48" t="n">
-        <v>4.217637540789466</v>
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9771748114234601</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2451638856773953</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.729351220360175</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.9113610812837083</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.49787040531399</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9217898731.477573</v>
+        <v>11946222661.7689</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1250319225209427</v>
+        <v>0.09450326868701052</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09288306118886824</v>
+        <v>0.06031871361051647</v>
       </c>
       <c r="I49" t="n">
-        <v>3.172240201619428</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.130091135457642</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7151842279271271</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.173593423084901</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>10546954895.07113</v>
+        <v>13379539253.5976</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1313798460110562</v>
+        <v>0.1019991917608857</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1162924710012836</v>
+        <v>0.0803152184735018</v>
       </c>
       <c r="I50" t="n">
-        <v>3.813897878765176</v>
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9668146310195715</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.191804878701811</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.700788764856292</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9293801987105282</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12.88681520935427</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>5594933612.61884</v>
+        <v>9149015509.582903</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2233179366386022</v>
+        <v>0.1471597089970809</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4553350640985649</v>
+        <v>0.2007877064684531</v>
       </c>
       <c r="I51" t="n">
-        <v>3.438996764028334</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.897891957624801</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7601310563835606</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.30472917004641</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6587348127.240099</v>
+        <v>11689699121.23146</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2127371474728987</v>
+        <v>0.0959048567780329</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4163160006041038</v>
+        <v>0.06405766114263703</v>
       </c>
       <c r="I52" t="n">
-        <v>3.85715569969635</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.04210717445601</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6743488766067377</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.444870357678743</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>4505118431.533149</v>
+        <v>14740172201.33521</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2645485281048223</v>
+        <v>0.09382779937094086</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6073822357357533</v>
+        <v>0.05851679737812357</v>
       </c>
       <c r="I53" t="n">
-        <v>3.280384753947363</v>
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9754603832858469</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2763741283403208</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.774440635771392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.9165652565149781</v>
+      </c>
+      <c r="N53" t="n">
+        <v>13.55686449452817</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>8247209254.014279</v>
+        <v>7429348472.021337</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1756379188869181</v>
+        <v>0.2143645739592959</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2795041680345569</v>
+        <v>0.380066815363905</v>
       </c>
       <c r="I54" t="n">
-        <v>3.986929162489872</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.02641656913653</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.4941659997455808</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6.856903425775087</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>9033434397.515789</v>
+        <v>11059557620.78906</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1644107949030361</v>
+        <v>0.1196062261580426</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2381015980819073</v>
+        <v>0.1272846371128903</v>
       </c>
       <c r="I55" t="n">
-        <v>4.087864077995945</v>
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3175935873045467</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.801780921987326</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5883114852555822</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7.964448783124318</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>4648520125.64455</v>
+        <v>4769688648.383862</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3302045594106504</v>
+        <v>0.2625052728387722</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8495037650655647</v>
+        <v>0.5084893871757704</v>
       </c>
       <c r="I56" t="n">
-        <v>4.224847177611329</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.061492060827234</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7414139264724375</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.766786468621516</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>3604155918.636582</v>
+        <v>4327675958.49967</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3030628126691038</v>
+        <v>0.2275795714477302</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7494124086578808</v>
+        <v>0.4153198134186465</v>
       </c>
       <c r="I57" t="n">
-        <v>3.006418554716594</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.752730595650025</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6372967595061567</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.993204594473109</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>7328154922.166939</v>
+        <v>10517843748.16593</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1554872491236947</v>
+        <v>0.1539082590271678</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2051939960205724</v>
+        <v>0.2187904810653605</v>
       </c>
       <c r="I58" t="n">
-        <v>3.136192017510116</v>
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4953970830479411</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.440072833226302</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5769076330717621</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.098079828208938</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>9467835418.36602</v>
+        <v>7159483336.385159</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1438642244834323</v>
+        <v>0.2206153846287866</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1623314524679499</v>
+        <v>0.3967417951786926</v>
       </c>
       <c r="I59" t="n">
-        <v>3.749011147368415</v>
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3836735926826805</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.86786092736546</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6657337250730043</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.446813574094627</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>4142245743.994885</v>
+        <v>14136788122.98797</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3705628866238254</v>
+        <v>0.07189209537259364</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9983342641332028</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>4.224847177611329</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.83227347848934</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6890468735210461</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.948663991931581</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>10598779893.76663</v>
+        <v>11953779749.724</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0998448472943919</v>
+        <v>0.08392545211678037</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.03210079322876108</v>
       </c>
       <c r="I61" t="n">
-        <v>2.912693276032384</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.870621058896608</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6858536422914058</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.846451786931507</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>5401731269.668996</v>
+        <v>6881729812.679011</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2788271342665836</v>
+        <v>0.2215264216260371</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6600378393691826</v>
+        <v>0.3991721237141297</v>
       </c>
       <c r="I62" t="n">
-        <v>4.145541172570844</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.503608501571359</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7928105364649257</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.352602227727155</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>9135294930.523813</v>
+        <v>5065119535.477019</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1608571809860266</v>
+        <v>0.3082170971613554</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2249968395529269</v>
+        <v>0.6304325699371046</v>
       </c>
       <c r="I63" t="n">
-        <v>4.04460625706477</v>
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9777818024223632</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4719840269539332</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.367423890301186</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.939661896008322</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.42581402986525</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>6163783806.337055</v>
+        <v>7467537593.397946</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2218315279965273</v>
+        <v>0.1669666371820241</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4498535945904272</v>
+        <v>0.2536256734363102</v>
       </c>
       <c r="I64" t="n">
-        <v>3.763430421012139</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.175640672231099</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7403413061977404</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.631185451723709</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>5957778923.034109</v>
+        <v>10408406959.61341</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.202682712064287</v>
+        <v>0.09638615917812475</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.379237986151153</v>
+        <v>0.06534160785462319</v>
       </c>
       <c r="I65" t="n">
-        <v>3.323642574878537</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.549590344829729</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5911769385496244</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.27394842616276</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>9637024464.124138</v>
+        <v>8905838637.080486</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1277482800404917</v>
+        <v>0.1367660474925571</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1029002465678657</v>
+        <v>0.1730610474871481</v>
       </c>
       <c r="I66" t="n">
-        <v>3.388529306275298</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.351403662846861</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7343760415959175</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.336117169071489</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>10322381195.78999</v>
+        <v>9700217722.093765</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1164750639600833</v>
+        <v>0.1039631458686811</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.06132770153936943</v>
+        <v>0.08555436213601912</v>
       </c>
       <c r="I67" t="n">
-        <v>3.309223301234812</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.130925310882199</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.3997125225068487</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-11.12517576101918</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>6563166867.135049</v>
+        <v>13149394774.72693</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1780006456715252</v>
+        <v>0.1021907922775788</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2882172597505773</v>
+        <v>0.08082634173691376</v>
       </c>
       <c r="I68" t="n">
-        <v>3.215498022550602</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.773767292149905</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.5012723896169398</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-12.7992150844887</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>6484396138.279901</v>
+        <v>14072694664.87889</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2197503251826302</v>
+        <v>0.08748241394538882</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4421786864650936</v>
+        <v>0.0415895251437287</v>
       </c>
       <c r="I69" t="n">
-        <v>3.922042431093111</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.872021368829682</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7371014941962576</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.870008515095471</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>6589756887.303577</v>
+        <v>7839408043.636476</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2015295484661512</v>
+        <v>0.1346548316051592</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3749854334397723</v>
+        <v>0.1674290608267861</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5717965673775217</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.856774945037129</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.6984250637743969</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.111726330450809</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>4533880212.684892</v>
+        <v>12478043147.98815</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2409162965849876</v>
+        <v>0.120284122454088</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5202330139010393</v>
+        <v>0.129093027680253</v>
       </c>
       <c r="I71" t="n">
-        <v>3.006418554716594</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.668986711065205</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7886642732919323</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.104298754773442</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>4686826967.039649</v>
+        <v>3578538127.024026</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2609985686697214</v>
+        <v>0.3894091471253575</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5942909539389336</v>
+        <v>0.8470246034918959</v>
       </c>
       <c r="I72" t="n">
-        <v>0.444695631112533</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.109630337157528</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7690996081136386</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.272361825115246</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>6230636872.88611</v>
+        <v>3475050670.467334</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2139860719217958</v>
+        <v>0.430402843535763</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4209216932049222</v>
+        <v>0.9563814687563411</v>
       </c>
       <c r="I73" t="n">
-        <v>3.669705142327929</v>
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.286856461028209</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.79584034718269</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.757305782856856</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9.35027530995443</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>8844209975.845009</v>
+        <v>9323714757.677114</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1341650269770567</v>
+        <v>0.1090041197542174</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.126563458472445</v>
+        <v>0.09900191993815588</v>
       </c>
       <c r="I74" t="n">
-        <v>3.265965480303638</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.667302545137691</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5956775056920462</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.246247568703234</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>6618610759.25742</v>
+        <v>4881873872.504786</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2247924185478051</v>
+        <v>0.2124754688649493</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4607725510700574</v>
+        <v>0.3750273427287803</v>
       </c>
       <c r="I75" t="n">
-        <v>4.095073714817807</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.963573406606187</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6940853540383356</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.918133674160526</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>6568286211.77389</v>
+        <v>13222895530.4588</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1770643243157194</v>
+        <v>0.1194513082525425</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2847643620639068</v>
+        <v>0.1268713702449987</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5607486549190113</v>
+        <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9767056339859639</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2460301972230485</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.19070594740141</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8815915660136247</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.44112537287108</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>6750421413.968178</v>
+        <v>7038477926.18516</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2017774471356021</v>
+        <v>0.1708181829379756</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.375899616094016</v>
+        <v>0.2639002523880763</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6611571411291758</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.928318907195316</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7310740274187907</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.693161641180498</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>11941045118.65247</v>
+        <v>3750681070.005208</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1048541737811719</v>
+        <v>0.3198567400449045</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0184730292978254</v>
+        <v>0.6614830720874655</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4650986883748554</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.854166979591401</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7305202967952037</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.756238956312673</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>7814527653.237488</v>
+        <v>12834846093.46191</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1424578425464774</v>
+        <v>0.1087769077894275</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1571450996131574</v>
+        <v>0.09839579776826812</v>
       </c>
       <c r="I79" t="n">
-        <v>3.064095649291493</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.156053052630861</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7695907515226015</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.235761977821168</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>3882239338.617379</v>
+        <v>4321895535.249201</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3117165312200937</v>
+        <v>0.3406137811508021</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7813249615229128</v>
+        <v>0.7168556085082117</v>
       </c>
       <c r="I80" t="n">
-        <v>3.330852211700399</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.312835613311451</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7835265278651568</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.357694943991683</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>5616664455.519073</v>
+        <v>12324120680.61456</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1977368184970844</v>
+        <v>0.08225365170226893</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3609988801531749</v>
+        <v>0.02764101358731442</v>
       </c>
       <c r="I81" t="n">
-        <v>3.056886012469631</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.151255409029459</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.3951247573334031</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-11.05375055569752</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>10521717909.77308</v>
+        <v>12307751091.11432</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1090404466113218</v>
+        <v>0.1055609128249255</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.03391086127865892</v>
+        <v>0.0898166463664708</v>
       </c>
       <c r="I82" t="n">
-        <v>0.467894770946037</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.643174474036102</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.5884034042484305</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-14.41124255900471</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>10205244306.3549</v>
+        <v>6977482740.462494</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1121652158084252</v>
+        <v>0.2132306987120375</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.04543415749011</v>
+        <v>0.3770420322021296</v>
       </c>
       <c r="I83" t="n">
-        <v>3.150611291153841</v>
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9768985547270733</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4839456095816488</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.98201211701272</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9417538482254303</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13.85306484749589</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>3713598333.421417</v>
+        <v>7100916824.760566</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3710145837798792</v>
+        <v>0.2231727239043439</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0.403563883233226</v>
       </c>
       <c r="I84" t="n">
-        <v>3.792268968299589</v>
+        <v>8</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9831137531922447</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3591335279975283</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.113625471074769</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.862938978106892</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.14515409106307</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>8277350943.553509</v>
+        <v>5342862114.513954</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1528466508944295</v>
+        <v>0.235324658030105</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1954561902333604</v>
+        <v>0.4359809995037157</v>
       </c>
       <c r="I85" t="n">
-        <v>3.482254584959509</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.881075718206356</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7424829380904787</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.968583043603219</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>10570694204.0455</v>
+        <v>3758380141.149067</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1273678373445646</v>
+        <v>0.4105015065155985</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.101497277708369</v>
+        <v>0.9032916519877316</v>
       </c>
       <c r="I86" t="n">
-        <v>3.705753326437241</v>
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.383480104311776</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.564093433944376</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.6072726480542692</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8.581359527141007</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>5438173784.078458</v>
+        <v>4246701372.020517</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1998918926023635</v>
+        <v>0.3663826400064758</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3689462054454813</v>
+        <v>0.7855979243434609</v>
       </c>
       <c r="I87" t="n">
-        <v>2.99199928107287</v>
+        <v>7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9767840482483987</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.273710524239456</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.218386274417818</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8752884456261226</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.28738263810463</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>7222853252.357603</v>
+        <v>13863722654.35293</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1628312342655042</v>
+        <v>0.08351078630648193</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2322766094308731</v>
+        <v>0.03099460966598607</v>
       </c>
       <c r="I88" t="n">
-        <v>3.237126933016189</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.038897355201666</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7215242291347242</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.391587227492819</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>11168142579.78425</v>
+        <v>5365159689.318497</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1193814907425508</v>
+        <v>0.2821924243959111</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.072045810499965</v>
+        <v>0.561007831931786</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5706193806278328</v>
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9765937273545751</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2004881160847399</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.698554623515811</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9475902044704735</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.25324946589366</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>7482469518.367587</v>
+        <v>5044478818.522521</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1596320355289046</v>
+        <v>0.2238005412679403</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2204788373857214</v>
+        <v>0.4052386806985276</v>
       </c>
       <c r="I90" t="n">
-        <v>3.287594390769225</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.306540572063312</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7151842279271271</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.99714398647923</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>6928949877.838947</v>
+        <v>15581348064.55413</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1818351427291541</v>
+        <v>0.07632221904504576</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3023578386637192</v>
+        <v>0.01181802276874458</v>
       </c>
       <c r="I91" t="n">
-        <v>3.467835311315784</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.828667453550874</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7282955208910008</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.737242964269142</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>7458455584.930524</v>
+        <v>13770640256.13366</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1928073571833699</v>
+        <v>0.0720916959222585</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3428203718225514</v>
+        <v>0.0005324645574256903</v>
       </c>
       <c r="I92" t="n">
-        <v>3.958090615202423</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.309477600922246</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.17821624063648</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.2548472118073537</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>10215365351.03341</v>
+        <v>12097282836.01991</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1233364198640769</v>
+        <v>0.08574474566400003</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.08663051000509504</v>
+        <v>0.0369540330373399</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5356081368584162</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.212249618801671</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.6940853540383356</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.669457461965042</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>4973040713.261958</v>
+        <v>14391707093.69762</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391299666678112</v>
+        <v>0.09318753301943609</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5136455165632898</v>
+        <v>0.0568087903608034</v>
       </c>
       <c r="I94" t="n">
-        <v>3.273175117125501</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.272053138737187</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7591191910619803</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.910330682502421</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>8158421099.452911</v>
+        <v>3878006642.008131</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1871813616120409</v>
+        <v>0.3404255541234403</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3220732351979226</v>
+        <v>0.7163534845361684</v>
       </c>
       <c r="I95" t="n">
-        <v>4.203218267145742</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.258635660580312</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7550399186632184</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.842162712684056</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>5239227216.060904</v>
+        <v>11487611807.91249</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2974746056483843</v>
+        <v>0.1317947929749137</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7288046258973643</v>
+        <v>0.1597994766095532</v>
       </c>
       <c r="I96" t="n">
-        <v>4.28973390900809</v>
+        <v>5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9776718167928187</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.3170288227756922</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.801216157458472</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.9083068516519999</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.36492087558153</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>8643501760.017998</v>
+        <v>6162460056.369373</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1815253416454135</v>
+        <v>0.246532421484784</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3012153767955336</v>
+        <v>0.465879398168687</v>
       </c>
       <c r="I97" t="n">
-        <v>4.31857245629554</v>
+        <v>10</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9837579219553627</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3692267784886277</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.832919269767104</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.790992604575937</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12.98693282175164</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>7558629700.73232</v>
+        <v>12299002276.08705</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1413895325360968</v>
+        <v>0.09008876859501753</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1532054637812739</v>
+        <v>0.04854236909801188</v>
       </c>
       <c r="I98" t="n">
-        <v>0.292633708719141</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.917925296334972</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7104895944739886</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.291866593144801</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>5806571330.450771</v>
+        <v>10727412997.89917</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2404404924259522</v>
+        <v>0.1018219052640101</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5184783779847971</v>
+        <v>0.07984228001589269</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3426577699339638</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.985031439298679</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7069205266029053</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.153379092759427</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>8870463712.618944</v>
+        <v>13642034922.79634</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1314055936378839</v>
+        <v>0.09638838981438888</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1163874212238322</v>
+        <v>0.06534755841314195</v>
       </c>
       <c r="I100" t="n">
-        <v>3.20828838572874</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.186023835492976</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.4230610718914294</v>
+      </c>
+      <c r="N100" t="n">
+        <v>5.275197602335614</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>5533588067.468931</v>
+        <v>3962692737.454478</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3072119010798674</v>
+        <v>0.3992516364052752</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.7647131146457176</v>
+        <v>0.873280927470953</v>
       </c>
       <c r="I101" t="n">
-        <v>4.679054297388656</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.123161721667337</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.4885736959601263</v>
+      </c>
+      <c r="N101" t="n">
+        <v>6.648312197535189</v>
       </c>
     </row>
   </sheetData>
